--- a/admin/STAFF_MEMBER_REPORT.xlsx
+++ b/admin/STAFF_MEMBER_REPORT.xlsx
@@ -15,18 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
-  <si>
-    <t>SUMMARY OF STUDIO BUSINESS REPORT</t>
-  </si>
-  <si>
-    <t>Dance Enterprises, Inc. DBA Arthur Murray Thousand Oaks</t>
-  </si>
-  <si>
-    <t>12/08/2024 - 12/14/2024</t>
-  </si>
-  <si>
-    <t>Week # 50</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+  <si>
+    <t>SUMMARY OF STAFF MEMBER REPORT</t>
+  </si>
+  <si>
+    <t>(02/05/2023 - 02/11/2023)</t>
+  </si>
+  <si>
+    <t>Week # 6</t>
   </si>
   <si>
     <t>CASH RECEIPTS</t>
@@ -47,13 +44,7 @@
     <t>Week</t>
   </si>
   <si>
-    <t>$24,424.30</t>
-  </si>
-  <si>
-    <t>$10,069.19</t>
-  </si>
-  <si>
-    <t>$34,493.49</t>
+    <t>$0.00</t>
   </si>
   <si>
     <t>Week Refunds</t>
@@ -65,31 +56,28 @@
     <t>Transfer out</t>
   </si>
   <si>
-    <t>$0.00</t>
-  </si>
-  <si>
     <t>NET Y.T.D.</t>
   </si>
   <si>
-    <t>$464,513.71</t>
-  </si>
-  <si>
-    <t>$215,303.99</t>
-  </si>
-  <si>
-    <t>$679,817.70</t>
+    <t>$53,671.38</t>
+  </si>
+  <si>
+    <t>$21,427.50</t>
+  </si>
+  <si>
+    <t>$75,098.88</t>
   </si>
   <si>
     <t>PRV. Y.T.D.</t>
   </si>
   <si>
-    <t>$418,376.26</t>
-  </si>
-  <si>
-    <t>$251,957.23</t>
-  </si>
-  <si>
-    <t>$670,333.49</t>
+    <t>$18,334.56</t>
+  </si>
+  <si>
+    <t>$36,020.00</t>
+  </si>
+  <si>
+    <t>$54,354.56</t>
   </si>
   <si>
     <t>INQUIRIES</t>
@@ -119,7 +107,7 @@
     <t># in class [incl.core]</t>
   </si>
   <si>
-    <t>61 [61]</t>
+    <t>0 [0]</t>
   </si>
   <si>
     <t>Department</t>
@@ -128,19 +116,13 @@
     <t>Y.T.D.</t>
   </si>
   <si>
-    <t>2315 [2315]</t>
-  </si>
-  <si>
-    <t>21Intv(front)</t>
+    <t>33Intv(front)</t>
   </si>
   <si>
     <t>PREV</t>
   </si>
   <si>
-    <t>999 [999]</t>
-  </si>
-  <si>
-    <t>34Ren(back)</t>
+    <t>20Ren(back)</t>
   </si>
   <si>
     <t>UNIT SALES TRACKING</t>
@@ -158,10 +140,55 @@
     <t>Renewal</t>
   </si>
   <si>
-    <t>T : 1</t>
-  </si>
-  <si>
-    <t>S : 1</t>
+    <t>T : 5</t>
+  </si>
+  <si>
+    <t>S : 5</t>
+  </si>
+  <si>
+    <t>T : 3</t>
+  </si>
+  <si>
+    <t>S : 0</t>
+  </si>
+  <si>
+    <t>T : 4</t>
+  </si>
+  <si>
+    <t>T : 0</t>
+  </si>
+  <si>
+    <t>T : 12</t>
+  </si>
+  <si>
+    <t>Units: 0.00</t>
+  </si>
+  <si>
+    <t>Units: 3.00</t>
+  </si>
+  <si>
+    <t>Units: 93.00</t>
+  </si>
+  <si>
+    <t>Units: 96.00</t>
+  </si>
+  <si>
+    <t>$510.30</t>
+  </si>
+  <si>
+    <t>$12,114.90</t>
+  </si>
+  <si>
+    <t>$12,625.20</t>
+  </si>
+  <si>
+    <t>Adjust</t>
+  </si>
+  <si>
+    <t>0 / 0.00/ $0.00</t>
+  </si>
+  <si>
+    <t>Net YTD</t>
   </si>
   <si>
     <t>T : 15</t>
@@ -170,124 +197,52 @@
     <t>S : 15</t>
   </si>
   <si>
-    <t>T : 18</t>
-  </si>
-  <si>
-    <t>S : 18</t>
-  </si>
-  <si>
-    <t>Units: 2.00</t>
-  </si>
-  <si>
-    <t>Units: 24.00</t>
-  </si>
-  <si>
-    <t>Units: 400.00</t>
-  </si>
-  <si>
-    <t>Units: 428.00</t>
-  </si>
-  <si>
-    <t>$189.00</t>
-  </si>
-  <si>
-    <t>$359.10</t>
-  </si>
-  <si>
-    <t>$4,309.20</t>
-  </si>
-  <si>
-    <t>$59,172.50</t>
-  </si>
-  <si>
-    <t>$64,029.80</t>
-  </si>
-  <si>
-    <t>Adjust</t>
-  </si>
-  <si>
-    <t>0 / 0.00/ $0.00</t>
-  </si>
-  <si>
-    <t>Net YTD</t>
-  </si>
-  <si>
-    <t>T : 191</t>
-  </si>
-  <si>
-    <t>S : 191</t>
-  </si>
-  <si>
-    <t>T : 135</t>
-  </si>
-  <si>
-    <t>S : 54</t>
-  </si>
-  <si>
-    <t>T : 45</t>
-  </si>
-  <si>
-    <t>S : 40</t>
-  </si>
-  <si>
-    <t>T : 57</t>
-  </si>
-  <si>
-    <t>S : 57</t>
-  </si>
-  <si>
-    <t>T : 428</t>
-  </si>
-  <si>
-    <t>S : 342</t>
-  </si>
-  <si>
-    <t>Units: 637.00</t>
-  </si>
-  <si>
-    <t>Units: 371.00</t>
-  </si>
-  <si>
-    <t>Units: 1,267.00</t>
-  </si>
-  <si>
-    <t>Units: 2,194.00</t>
-  </si>
-  <si>
-    <t>Units: 4,469.00</t>
-  </si>
-  <si>
-    <t>$55,289.07</t>
-  </si>
-  <si>
-    <t>$58,036.60</t>
-  </si>
-  <si>
-    <t>$215,943.21</t>
-  </si>
-  <si>
-    <t>$321,760.00</t>
-  </si>
-  <si>
-    <t>$651,028.88</t>
+    <t>T : 13</t>
+  </si>
+  <si>
+    <t>T : 9</t>
+  </si>
+  <si>
+    <t>T : 2</t>
+  </si>
+  <si>
+    <t>T : 39</t>
+  </si>
+  <si>
+    <t>Units: 40.00</t>
+  </si>
+  <si>
+    <t>Units: 232.00</t>
+  </si>
+  <si>
+    <t>Units: 65.00</t>
+  </si>
+  <si>
+    <t>Units: 337.00</t>
+  </si>
+  <si>
+    <t>$6,123.60</t>
+  </si>
+  <si>
+    <t>$32,128.55</t>
+  </si>
+  <si>
+    <t>$9,875.25</t>
+  </si>
+  <si>
+    <t>$48,127.40</t>
   </si>
   <si>
     <t>Prev</t>
   </si>
   <si>
-    <t>$57,207.24</t>
-  </si>
-  <si>
-    <t>$49,483.70</t>
-  </si>
-  <si>
-    <t>$184,651.55</t>
-  </si>
-  <si>
-    <t>$227,225.25</t>
-  </si>
-  <si>
-    <t>$518,567.74</t>
+    <t>$3,300.00</t>
+  </si>
+  <si>
+    <t>$2,979.00</t>
+  </si>
+  <si>
+    <t>$6,279.00</t>
   </si>
   <si>
     <t>MISCELLANEOUS / FESTIVAL SALES TRACKING</t>
@@ -311,16 +266,13 @@
     <t>Prev.</t>
   </si>
   <si>
-    <t>$1,691.69</t>
-  </si>
-  <si>
     <t>$0.000</t>
   </si>
   <si>
-    <t>$225,757.69</t>
-  </si>
-  <si>
-    <t>$310,721.11</t>
+    <t>$24,627.50</t>
+  </si>
+  <si>
+    <t>$34,320.00</t>
   </si>
 </sst>
 </file>
@@ -400,9 +352,6 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -414,6 +363,9 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -744,621 +696,621 @@
       </c>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="20">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="20">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" customHeight="1" ht="20">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" customHeight="1" ht="20">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" customHeight="1" ht="20">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" customHeight="1" ht="20">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" customHeight="1" ht="20">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" customHeight="1" ht="20">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" customHeight="1" ht="20">
-      <c r="A7" s="5" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" customHeight="1" ht="20">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" customHeight="1" ht="20">
-      <c r="A8" s="5" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" customHeight="1" ht="20">
-      <c r="A9" s="5" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" customHeight="1" ht="20">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" customHeight="1" ht="20">
-      <c r="A10" s="5" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="12" spans="1:11" customHeight="1" ht="20">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="7" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" customHeight="1" ht="35">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="12" spans="1:11" customHeight="1" ht="20">
-      <c r="A12" s="5" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" customHeight="1" ht="35">
-      <c r="A13" s="3" t="s">
+      <c r="F13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
+      <c r="G13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="20">
       <c r="A14" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="8">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8">
         <v>0</v>
       </c>
-      <c r="C14" s="8"/>
       <c r="D14" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F14" s="8">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="20">
       <c r="A15" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" s="8">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="C15" s="8">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="D15" s="8">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="E15" s="8">
-        <v>715</v>
+        <v>84</v>
       </c>
       <c r="F15" s="8">
-        <v>2204</v>
+        <v>180</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="20">
       <c r="A16" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" s="8">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="C16" s="8">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="D16" s="8">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="E16" s="8">
-        <v>811.5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="8">
-        <v>1969.5</v>
+        <v>172</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" customHeight="1" ht="35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" customHeight="1" ht="20">
+      <c r="A20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" customHeight="1" ht="35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
+      <c r="D20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3" t="s">
+      <c r="E20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3" t="s">
+      <c r="F20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="3" t="s">
+      <c r="G20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" customHeight="1" ht="20">
-      <c r="A20" s="3" t="s">
+      <c r="I20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" customHeight="1" ht="20">
+      <c r="A21" s="3"/>
+      <c r="B21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" customHeight="1" ht="20">
+      <c r="A22" s="7"/>
+      <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" customHeight="1" ht="20">
+      <c r="A23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" customHeight="1" ht="20">
+      <c r="A24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" customHeight="1" ht="20">
+      <c r="A25" s="3"/>
+      <c r="B25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" customHeight="1" ht="20">
-      <c r="A21" s="4"/>
-      <c r="B21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" customHeight="1" ht="20">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" customHeight="1" ht="20">
-      <c r="A23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" customHeight="1" ht="20">
-      <c r="A24" s="3" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="I25" s="3"/>
+      <c r="J25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" customHeight="1" ht="20">
+      <c r="A26" s="3"/>
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="I26" s="3"/>
+      <c r="J26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" customHeight="1" ht="20">
+      <c r="A27" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="B27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" customHeight="1" ht="20">
-      <c r="A25" s="4"/>
-      <c r="B25" s="8" t="s">
+      <c r="I27" s="3"/>
+      <c r="J27" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" customHeight="1" ht="20">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" customHeight="1" ht="20">
-      <c r="A27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="4"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="20">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" customHeight="1" ht="20">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" customHeight="1" ht="20">
       <c r="A32" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="F32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" customHeight="1" ht="20">
       <c r="A33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="F33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" customHeight="1" ht="20">
       <c r="A34" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="F34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/STAFF_MEMBER_REPORT.xlsx
+++ b/admin/STAFF_MEMBER_REPORT.xlsx
@@ -15,15 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>SUMMARY OF STAFF MEMBER REPORT</t>
   </si>
   <si>
-    <t>(02/05/2023 - 02/11/2023)</t>
-  </si>
-  <si>
-    <t>Week # 6</t>
+    <t>Dance Enterprises, Inc. DBA Arthur Murray Thousand Oaks (Robert Melgoza, Edwin Cabrera, Daisy Ramirez, Trainees Trainees, Time Exchange, Coach Coach, Nicholas Kavoklis, Emily Story, Caleb Castillo)</t>
+  </si>
+  <si>
+    <t>(11/10/2024 - 11/16/2024)</t>
+  </si>
+  <si>
+    <t>Week # 46</t>
   </si>
   <si>
     <t>CASH RECEIPTS</t>
@@ -44,40 +47,49 @@
     <t>Week</t>
   </si>
   <si>
+    <t>$8,693.71</t>
+  </si>
+  <si>
+    <t>$795.00</t>
+  </si>
+  <si>
+    <t>$9,488.71</t>
+  </si>
+  <si>
+    <t>Week Refunds</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Transfer out</t>
+  </si>
+  <si>
     <t>$0.00</t>
   </si>
   <si>
-    <t>Week Refunds</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Transfer out</t>
-  </si>
-  <si>
     <t>NET Y.T.D.</t>
   </si>
   <si>
-    <t>$53,671.38</t>
-  </si>
-  <si>
-    <t>$21,427.50</t>
-  </si>
-  <si>
-    <t>$75,098.88</t>
+    <t>$411,264.47</t>
+  </si>
+  <si>
+    <t>$190,459.80</t>
+  </si>
+  <si>
+    <t>$601,724.27</t>
   </si>
   <si>
     <t>PRV. Y.T.D.</t>
   </si>
   <si>
-    <t>$18,334.56</t>
-  </si>
-  <si>
-    <t>$36,020.00</t>
-  </si>
-  <si>
-    <t>$54,354.56</t>
+    <t>$358,486.01</t>
+  </si>
+  <si>
+    <t>$244,032.23</t>
+  </si>
+  <si>
+    <t>$602,518.24</t>
   </si>
   <si>
     <t>INQUIRIES</t>
@@ -107,7 +119,7 @@
     <t># in class [incl.core]</t>
   </si>
   <si>
-    <t>0 [0]</t>
+    <t>85 [85]</t>
   </si>
   <si>
     <t>Department</t>
@@ -116,13 +128,19 @@
     <t>Y.T.D.</t>
   </si>
   <si>
-    <t>33Intv(front)</t>
+    <t>2071 [2071]</t>
+  </si>
+  <si>
+    <t>24Intv(front)</t>
   </si>
   <si>
     <t>PREV</t>
   </si>
   <si>
-    <t>20Ren(back)</t>
+    <t>893 [893]</t>
+  </si>
+  <si>
+    <t>44Ren(back)</t>
   </si>
   <si>
     <t>UNIT SALES TRACKING</t>
@@ -146,40 +164,52 @@
     <t>S : 5</t>
   </si>
   <si>
-    <t>T : 3</t>
-  </si>
-  <si>
-    <t>S : 0</t>
-  </si>
-  <si>
-    <t>T : 4</t>
-  </si>
-  <si>
-    <t>T : 0</t>
-  </si>
-  <si>
-    <t>T : 12</t>
-  </si>
-  <si>
-    <t>Units: 0.00</t>
-  </si>
-  <si>
-    <t>Units: 3.00</t>
-  </si>
-  <si>
-    <t>Units: 93.00</t>
-  </si>
-  <si>
-    <t>Units: 96.00</t>
-  </si>
-  <si>
-    <t>$510.30</t>
-  </si>
-  <si>
-    <t>$12,114.90</t>
-  </si>
-  <si>
-    <t>$12,625.20</t>
+    <t>T : 2</t>
+  </si>
+  <si>
+    <t>S : 2</t>
+  </si>
+  <si>
+    <t>T : 1</t>
+  </si>
+  <si>
+    <t>S : 1</t>
+  </si>
+  <si>
+    <t>T : 9</t>
+  </si>
+  <si>
+    <t>S : 9</t>
+  </si>
+  <si>
+    <t>Units: 21.00</t>
+  </si>
+  <si>
+    <t>Units: 12.00</t>
+  </si>
+  <si>
+    <t>Units: 1.00</t>
+  </si>
+  <si>
+    <t>Units: 48.00</t>
+  </si>
+  <si>
+    <t>Units: 82.00</t>
+  </si>
+  <si>
+    <t>$2,121.60</t>
+  </si>
+  <si>
+    <t>$2,079.00</t>
+  </si>
+  <si>
+    <t>$170.10</t>
+  </si>
+  <si>
+    <t>$8,164.80</t>
+  </si>
+  <si>
+    <t>$12,535.50</t>
   </si>
   <si>
     <t>Adjust</t>
@@ -191,58 +221,82 @@
     <t>Net YTD</t>
   </si>
   <si>
-    <t>T : 15</t>
-  </si>
-  <si>
-    <t>S : 15</t>
-  </si>
-  <si>
-    <t>T : 13</t>
-  </si>
-  <si>
-    <t>T : 9</t>
-  </si>
-  <si>
-    <t>T : 2</t>
-  </si>
-  <si>
-    <t>T : 39</t>
-  </si>
-  <si>
-    <t>Units: 40.00</t>
-  </si>
-  <si>
-    <t>Units: 232.00</t>
-  </si>
-  <si>
-    <t>Units: 65.00</t>
-  </si>
-  <si>
-    <t>Units: 337.00</t>
-  </si>
-  <si>
-    <t>$6,123.60</t>
-  </si>
-  <si>
-    <t>$32,128.55</t>
-  </si>
-  <si>
-    <t>$9,875.25</t>
-  </si>
-  <si>
-    <t>$48,127.40</t>
+    <t>T : 174</t>
+  </si>
+  <si>
+    <t>S : 174</t>
+  </si>
+  <si>
+    <t>T : 130</t>
+  </si>
+  <si>
+    <t>S : 50</t>
+  </si>
+  <si>
+    <t>T : 41</t>
+  </si>
+  <si>
+    <t>S : 36</t>
+  </si>
+  <si>
+    <t>T : 40</t>
+  </si>
+  <si>
+    <t>S : 40</t>
+  </si>
+  <si>
+    <t>T : 385</t>
+  </si>
+  <si>
+    <t>S : 300</t>
+  </si>
+  <si>
+    <t>Units: 586.00</t>
+  </si>
+  <si>
+    <t>Units: 356.00</t>
+  </si>
+  <si>
+    <t>Units: 1,155.00</t>
+  </si>
+  <si>
+    <t>Units: 1,782.00</t>
+  </si>
+  <si>
+    <t>Units: 3,879.00</t>
+  </si>
+  <si>
+    <t>$51,634.57</t>
+  </si>
+  <si>
+    <t>$55,641.10</t>
+  </si>
+  <si>
+    <t>$196,967.61</t>
+  </si>
+  <si>
+    <t>$238,443.50</t>
+  </si>
+  <si>
+    <t>$542,686.78</t>
   </si>
   <si>
     <t>Prev</t>
   </si>
   <si>
-    <t>$3,300.00</t>
-  </si>
-  <si>
-    <t>$2,979.00</t>
-  </si>
-  <si>
-    <t>$6,279.00</t>
+    <t>$38,559.31</t>
+  </si>
+  <si>
+    <t>$44,683.10</t>
+  </si>
+  <si>
+    <t>$176,316.65</t>
+  </si>
+  <si>
+    <t>$214,411.05</t>
+  </si>
+  <si>
+    <t>$473,970.11</t>
   </si>
   <si>
     <t>MISCELLANEOUS / FESTIVAL SALES TRACKING</t>
@@ -269,10 +323,10 @@
     <t>$0.000</t>
   </si>
   <si>
-    <t>$24,627.50</t>
-  </si>
-  <si>
-    <t>$34,320.00</t>
+    <t>$191,493.50</t>
+  </si>
+  <si>
+    <t>$306,476.11</t>
   </si>
 </sst>
 </file>
@@ -352,6 +406,9 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -363,9 +420,6 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -696,203 +750,205 @@
       </c>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="20">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="20">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" customHeight="1" ht="20">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" customHeight="1" ht="20">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" customHeight="1" ht="20">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="20">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" customHeight="1" ht="20">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="20">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="20">
-      <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" customHeight="1" ht="35">
-      <c r="A13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="20">
       <c r="A14" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="8">
         <v>0</v>
@@ -901,27 +957,27 @@
         <v>0</v>
       </c>
       <c r="E14" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F14" s="8">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="20">
       <c r="A15" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
@@ -930,27 +986,27 @@
         <v>0</v>
       </c>
       <c r="E15" s="8">
-        <v>84</v>
+        <v>681</v>
       </c>
       <c r="F15" s="8">
-        <v>180</v>
+        <v>2041</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="20">
       <c r="A16" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" s="8">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="C16" s="8">
         <v>0</v>
@@ -959,358 +1015,358 @@
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <v>3</v>
+        <v>756.5</v>
       </c>
       <c r="F16" s="8">
-        <v>172</v>
+        <v>1812</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:11" customHeight="1" ht="35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" customHeight="1" ht="20">
-      <c r="A20" s="7" t="s">
-        <v>8</v>
+      <c r="A20" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:11" customHeight="1" ht="20">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" customHeight="1" ht="20">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" customHeight="1" ht="20">
-      <c r="A23" s="7" t="s">
-        <v>55</v>
+      <c r="A23" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="I23" s="4"/>
       <c r="J23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" customHeight="1" ht="20">
-      <c r="A24" s="7" t="s">
-        <v>57</v>
+      <c r="A24" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:11" customHeight="1" ht="20">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="G25" s="4"/>
       <c r="H25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="I25" s="4"/>
       <c r="J25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" customHeight="1" ht="20">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" customHeight="1" ht="20">
-      <c r="A27" s="7" t="s">
-        <v>72</v>
+      <c r="A27" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="E27" s="4"/>
       <c r="F27" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="I27" s="4"/>
       <c r="J27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="K27" s="4"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="20">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" customHeight="1" ht="20">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" customHeight="1" ht="20">
       <c r="A32" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="F32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" customHeight="1" ht="20">
       <c r="A33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="F33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" customHeight="1" ht="20">
       <c r="A34" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="F34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/STAFF_MEMBER_REPORT.xlsx
+++ b/admin/STAFF_MEMBER_REPORT.xlsx
@@ -15,18 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>SUMMARY OF STAFF MEMBER REPORT</t>
   </si>
   <si>
-    <t>Dance Enterprises, Inc. DBA Arthur Murray Thousand Oaks (Robert Melgoza, Edwin Cabrera, Daisy Ramirez, Trainees Trainees, Time Exchange, Coach Coach, Nicholas Kavoklis, Emily Story, Caleb Castillo)</t>
-  </si>
-  <si>
-    <t>(11/10/2024 - 11/16/2024)</t>
-  </si>
-  <si>
-    <t>Week # 46</t>
+    <t>Amto.Robert (Edwin Cabrera, Time Exchange, Coach Coach, Nicholas Kavoklis, Caleb Castillo, Roumyadeb Karmakar, Roumyadeb Karmakar)</t>
+  </si>
+  <si>
+    <t>(12/31/1969 - 12/31/1969)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week # </t>
   </si>
   <si>
     <t>CASH RECEIPTS</t>
@@ -47,13 +47,7 @@
     <t>Week</t>
   </si>
   <si>
-    <t>$8,693.71</t>
-  </si>
-  <si>
-    <t>$795.00</t>
-  </si>
-  <si>
-    <t>$9,488.71</t>
+    <t>$0.00</t>
   </si>
   <si>
     <t>Week Refunds</t>
@@ -65,33 +59,12 @@
     <t>Transfer out</t>
   </si>
   <si>
-    <t>$0.00</t>
-  </si>
-  <si>
     <t>NET Y.T.D.</t>
   </si>
   <si>
-    <t>$411,264.47</t>
-  </si>
-  <si>
-    <t>$190,459.80</t>
-  </si>
-  <si>
-    <t>$601,724.27</t>
-  </si>
-  <si>
     <t>PRV. Y.T.D.</t>
   </si>
   <si>
-    <t>$358,486.01</t>
-  </si>
-  <si>
-    <t>$244,032.23</t>
-  </si>
-  <si>
-    <t>$602,518.24</t>
-  </si>
-  <si>
     <t>INQUIRIES</t>
   </si>
   <si>
@@ -119,7 +92,7 @@
     <t># in class [incl.core]</t>
   </si>
   <si>
-    <t>85 [85]</t>
+    <t xml:space="preserve"> []</t>
   </si>
   <si>
     <t>Department</t>
@@ -128,19 +101,13 @@
     <t>Y.T.D.</t>
   </si>
   <si>
-    <t>2071 [2071]</t>
-  </si>
-  <si>
-    <t>24Intv(front)</t>
+    <t>Intv(front)</t>
   </si>
   <si>
     <t>PREV</t>
   </si>
   <si>
-    <t>893 [893]</t>
-  </si>
-  <si>
-    <t>44Ren(back)</t>
+    <t>Ren(back)</t>
   </si>
   <si>
     <t>UNIT SALES TRACKING</t>
@@ -158,58 +125,19 @@
     <t>Renewal</t>
   </si>
   <si>
-    <t>T : 5</t>
-  </si>
-  <si>
-    <t>S : 5</t>
-  </si>
-  <si>
-    <t>T : 2</t>
-  </si>
-  <si>
-    <t>S : 2</t>
-  </si>
-  <si>
-    <t>T : 1</t>
-  </si>
-  <si>
-    <t>S : 1</t>
-  </si>
-  <si>
-    <t>T : 9</t>
-  </si>
-  <si>
-    <t>S : 9</t>
-  </si>
-  <si>
-    <t>Units: 21.00</t>
-  </si>
-  <si>
-    <t>Units: 12.00</t>
-  </si>
-  <si>
-    <t>Units: 1.00</t>
-  </si>
-  <si>
-    <t>Units: 48.00</t>
-  </si>
-  <si>
-    <t>Units: 82.00</t>
-  </si>
-  <si>
-    <t>$2,121.60</t>
-  </si>
-  <si>
-    <t>$2,079.00</t>
-  </si>
-  <si>
-    <t>$170.10</t>
-  </si>
-  <si>
-    <t>$8,164.80</t>
-  </si>
-  <si>
-    <t>$12,535.50</t>
+    <t xml:space="preserve">T : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S : </t>
+  </si>
+  <si>
+    <t>T : 0</t>
+  </si>
+  <si>
+    <t>S : 0</t>
+  </si>
+  <si>
+    <t>Units: 0.00</t>
   </si>
   <si>
     <t>Adjust</t>
@@ -221,84 +149,9 @@
     <t>Net YTD</t>
   </si>
   <si>
-    <t>T : 174</t>
-  </si>
-  <si>
-    <t>S : 174</t>
-  </si>
-  <si>
-    <t>T : 130</t>
-  </si>
-  <si>
-    <t>S : 50</t>
-  </si>
-  <si>
-    <t>T : 41</t>
-  </si>
-  <si>
-    <t>S : 36</t>
-  </si>
-  <si>
-    <t>T : 40</t>
-  </si>
-  <si>
-    <t>S : 40</t>
-  </si>
-  <si>
-    <t>T : 385</t>
-  </si>
-  <si>
-    <t>S : 300</t>
-  </si>
-  <si>
-    <t>Units: 586.00</t>
-  </si>
-  <si>
-    <t>Units: 356.00</t>
-  </si>
-  <si>
-    <t>Units: 1,155.00</t>
-  </si>
-  <si>
-    <t>Units: 1,782.00</t>
-  </si>
-  <si>
-    <t>Units: 3,879.00</t>
-  </si>
-  <si>
-    <t>$51,634.57</t>
-  </si>
-  <si>
-    <t>$55,641.10</t>
-  </si>
-  <si>
-    <t>$196,967.61</t>
-  </si>
-  <si>
-    <t>$238,443.50</t>
-  </si>
-  <si>
-    <t>$542,686.78</t>
-  </si>
-  <si>
     <t>Prev</t>
   </si>
   <si>
-    <t>$38,559.31</t>
-  </si>
-  <si>
-    <t>$44,683.10</t>
-  </si>
-  <si>
-    <t>$176,316.65</t>
-  </si>
-  <si>
-    <t>$214,411.05</t>
-  </si>
-  <si>
-    <t>$473,970.11</t>
-  </si>
-  <si>
     <t>MISCELLANEOUS / FESTIVAL SALES TRACKING</t>
   </si>
   <si>
@@ -321,12 +174,6 @@
   </si>
   <si>
     <t>$0.000</t>
-  </si>
-  <si>
-    <t>$191,493.50</t>
-  </si>
-  <si>
-    <t>$306,476.11</t>
   </si>
 </sst>
 </file>
@@ -805,114 +652,114 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" customHeight="1" ht="20">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="20">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" customHeight="1" ht="20">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="20">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="20">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -920,23 +767,23 @@
     </row>
     <row r="13" spans="1:11" customHeight="1" ht="35">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -948,25 +795,19 @@
         <v>9</v>
       </c>
       <c r="B14" s="8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>11</v>
-      </c>
-      <c r="F14" s="8">
-        <v>46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -974,28 +815,22 @@
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="20">
       <c r="A15" s="8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B15" s="8">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>681</v>
-      </c>
-      <c r="F15" s="8">
-        <v>2041</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1003,28 +838,22 @@
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="20">
       <c r="A16" s="8" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B16" s="8">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>756.5</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1812</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1032,25 +861,25 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:11" customHeight="1" ht="35">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="3" t="s">
@@ -1063,216 +892,216 @@
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:11" customHeight="1" ht="20">
       <c r="A21" s="4"/>
       <c r="B21" s="8" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="8" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="8" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="8" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="8" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" customHeight="1" ht="20">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="6" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="6" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" customHeight="1" ht="20">
       <c r="A23" s="3" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="8" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="8" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="8" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" customHeight="1" ht="20">
       <c r="A24" s="3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:11" customHeight="1" ht="20">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="8" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="8" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="8" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" customHeight="1" ht="20">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="6" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="6" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" customHeight="1" ht="20">
       <c r="A27" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="8" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="8" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="8" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="8" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="K27" s="4"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="20">
@@ -1280,16 +1109,16 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1299,10 +1128,10 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1313,57 +1142,57 @@
     </row>
     <row r="32" spans="1:11" customHeight="1" ht="20">
       <c r="A32" s="8" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" customHeight="1" ht="20">
       <c r="A33" s="8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="6" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" customHeight="1" ht="20">
       <c r="A34" s="8" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="6" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>

--- a/admin/STAFF_MEMBER_REPORT.xlsx
+++ b/admin/STAFF_MEMBER_REPORT.xlsx
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>

--- a/admin/STAFF_MEMBER_REPORT.xlsx
+++ b/admin/STAFF_MEMBER_REPORT.xlsx
@@ -15,18 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>SUMMARY OF STAFF MEMBER REPORT</t>
   </si>
   <si>
-    <t>Amto.Robert (Edwin Cabrera, Time Exchange, Coach Coach, Nicholas Kavoklis, Caleb Castillo, Roumyadeb Karmakar, Roumyadeb Karmakar)</t>
-  </si>
-  <si>
-    <t>(12/31/1969 - 12/31/1969)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week # </t>
+    <t>Franchisee: Amto.Robert (Edwin Cabrera, Time Exchange, Coach Coach, Nicholas Kavoklis, Caleb Castillo, Roumyadeb Karmakar, Roumyadeb Karmakar)</t>
+  </si>
+  <si>
+    <t>(07/01/2025 - 09/16/2025)</t>
   </si>
   <si>
     <t>CASH RECEIPTS</t>
@@ -47,24 +44,51 @@
     <t>Week</t>
   </si>
   <si>
+    <t>$9,990.60</t>
+  </si>
+  <si>
+    <t>$180.00</t>
+  </si>
+  <si>
+    <t>$10,170.60</t>
+  </si>
+  <si>
+    <t>Week Refunds</t>
+  </si>
+  <si>
+    <t>$-1,124.55</t>
+  </si>
+  <si>
     <t>$0.00</t>
   </si>
   <si>
-    <t>Week Refunds</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Transfer out</t>
   </si>
   <si>
     <t>NET Y.T.D.</t>
   </si>
   <si>
+    <t>$60,085.54</t>
+  </si>
+  <si>
+    <t>$104,493.00</t>
+  </si>
+  <si>
+    <t>$163,453.99</t>
+  </si>
+  <si>
     <t>PRV. Y.T.D.</t>
   </si>
   <si>
+    <t>$215,931.96</t>
+  </si>
+  <si>
+    <t>$146,134.80</t>
+  </si>
+  <si>
+    <t>$362,066.76</t>
+  </si>
+  <si>
     <t>INQUIRIES</t>
   </si>
   <si>
@@ -92,7 +116,7 @@
     <t># in class [incl.core]</t>
   </si>
   <si>
-    <t xml:space="preserve"> []</t>
+    <t>0 [0]</t>
   </si>
   <si>
     <t>Department</t>
@@ -101,13 +125,19 @@
     <t>Y.T.D.</t>
   </si>
   <si>
-    <t>Intv(front)</t>
+    <t>362 [362]</t>
+  </si>
+  <si>
+    <t>0Intv(front)</t>
   </si>
   <si>
     <t>PREV</t>
   </si>
   <si>
-    <t>Ren(back)</t>
+    <t>783 [783]</t>
+  </si>
+  <si>
+    <t>1Ren(back)</t>
   </si>
   <si>
     <t>UNIT SALES TRACKING</t>
@@ -125,21 +155,27 @@
     <t>Renewal</t>
   </si>
   <si>
-    <t xml:space="preserve">T : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S : </t>
-  </si>
-  <si>
     <t>T : 0</t>
   </si>
   <si>
     <t>S : 0</t>
   </si>
   <si>
+    <t>T : 6</t>
+  </si>
+  <si>
+    <t>S : 6</t>
+  </si>
+  <si>
     <t>Units: 0.00</t>
   </si>
   <si>
+    <t>Units: 30.00</t>
+  </si>
+  <si>
+    <t>$8,970.00</t>
+  </si>
+  <si>
     <t>Adjust</t>
   </si>
   <si>
@@ -149,9 +185,75 @@
     <t>Net YTD</t>
   </si>
   <si>
+    <t>T : 2</t>
+  </si>
+  <si>
+    <t>S : 2</t>
+  </si>
+  <si>
+    <t>T : 8</t>
+  </si>
+  <si>
+    <t>T : 17</t>
+  </si>
+  <si>
+    <t>S : 13</t>
+  </si>
+  <si>
+    <t>T : 33</t>
+  </si>
+  <si>
+    <t>S : 23</t>
+  </si>
+  <si>
+    <t>Units: 8.00</t>
+  </si>
+  <si>
+    <t>Units: 24.00</t>
+  </si>
+  <si>
+    <t>Units: 47.00</t>
+  </si>
+  <si>
+    <t>Units: 188.00</t>
+  </si>
+  <si>
+    <t>Units: 267.00</t>
+  </si>
+  <si>
+    <t>$880.00</t>
+  </si>
+  <si>
+    <t>$4,184.40</t>
+  </si>
+  <si>
+    <t>$7,031.90</t>
+  </si>
+  <si>
+    <t>$26,072.50</t>
+  </si>
+  <si>
+    <t>$38,168.80</t>
+  </si>
+  <si>
     <t>Prev</t>
   </si>
   <si>
+    <t>$1,639.50</t>
+  </si>
+  <si>
+    <t>$30,504.60</t>
+  </si>
+  <si>
+    <t>$57,882.51</t>
+  </si>
+  <si>
+    <t>$164,358.75</t>
+  </si>
+  <si>
+    <t>$254,385.36</t>
+  </si>
+  <si>
     <t>MISCELLANEOUS / FESTIVAL SALES TRACKING</t>
   </si>
   <si>
@@ -174,6 +276,12 @@
   </si>
   <si>
     <t>$0.000</t>
+  </si>
+  <si>
+    <t>$122,390.50</t>
+  </si>
+  <si>
+    <t>$147,508.50</t>
   </si>
 </sst>
 </file>
@@ -610,45 +718,43 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="20">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" customHeight="1" ht="20">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" customHeight="1" ht="20">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6" t="s">
@@ -657,109 +763,109 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" customHeight="1" ht="20">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="20">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" customHeight="1" ht="20">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="20">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="20">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -767,23 +873,23 @@
     </row>
     <row r="13" spans="1:11" customHeight="1" ht="35">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -792,7 +898,7 @@
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="20">
       <c r="A14" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="8">
         <v>0</v>
@@ -800,14 +906,20 @@
       <c r="C14" s="8">
         <v>0</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
       <c r="G14" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -815,22 +927,28 @@
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="20">
       <c r="A15" s="8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>88</v>
+      </c>
+      <c r="F15" s="8">
+        <v>319</v>
+      </c>
       <c r="G15" s="8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -838,22 +956,28 @@
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="20">
       <c r="A16" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B16" s="8">
+        <v>174</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
         <v>0</v>
       </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="8">
+        <v>214</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1223</v>
+      </c>
       <c r="G16" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -861,247 +985,247 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:11" customHeight="1" ht="35">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" customHeight="1" ht="20">
       <c r="A20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:11" customHeight="1" ht="20">
       <c r="A21" s="4"/>
       <c r="B21" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" customHeight="1" ht="20">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" customHeight="1" ht="20">
       <c r="A23" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" customHeight="1" ht="20">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:11" customHeight="1" ht="20">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="8" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="8" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" customHeight="1" ht="20">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="6" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="6" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" customHeight="1" ht="20">
       <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="8" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="8" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="8" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="8" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="K27" s="4"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="20">
@@ -1109,16 +1233,16 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1128,10 +1252,10 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1142,14 +1266,14 @@
     </row>
     <row r="32" spans="1:11" customHeight="1" ht="20">
       <c r="A32" s="8" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1161,38 +1285,38 @@
     </row>
     <row r="33" spans="1:11" customHeight="1" ht="20">
       <c r="A33" s="8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="6" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" customHeight="1" ht="20">
       <c r="A34" s="8" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="6" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -1202,8 +1326,7 @@
   <mergeCells>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G2:K2"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:E5"/>

--- a/admin/STAFF_MEMBER_REPORT.xlsx
+++ b/admin/STAFF_MEMBER_REPORT.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>SUMMARY OF STAFF MEMBER REPORT</t>
   </si>
   <si>
-    <t>Franchisee: Amto.Robert (Edwin Cabrera, Time Exchange, Coach Coach, Nicholas Kavoklis, Caleb Castillo, Roumyadeb Karmakar, Roumyadeb Karmakar)</t>
-  </si>
-  <si>
-    <t>(07/01/2025 - 09/16/2025)</t>
+    <t>Franchisee: Amto.Robert (Time Exchange, Coach Coach, Nicholas Kavoklis, Caleb Castillo)</t>
+  </si>
+  <si>
+    <t>(06/01/2025 - 09/17/2025)</t>
   </si>
   <si>
     <t>CASH RECEIPTS</t>
@@ -44,13 +44,13 @@
     <t>Week</t>
   </si>
   <si>
-    <t>$9,990.60</t>
+    <t>$9,786.05</t>
   </si>
   <si>
     <t>$180.00</t>
   </si>
   <si>
-    <t>$10,170.60</t>
+    <t>$9,966.05</t>
   </si>
   <si>
     <t>Week Refunds</t>
@@ -68,25 +68,25 @@
     <t>NET Y.T.D.</t>
   </si>
   <si>
-    <t>$60,085.54</t>
-  </si>
-  <si>
-    <t>$104,493.00</t>
-  </si>
-  <si>
-    <t>$163,453.99</t>
+    <t>$30,417.91</t>
+  </si>
+  <si>
+    <t>$20,255.00</t>
+  </si>
+  <si>
+    <t>$49,548.36</t>
   </si>
   <si>
     <t>PRV. Y.T.D.</t>
   </si>
   <si>
-    <t>$215,931.96</t>
-  </si>
-  <si>
-    <t>$146,134.80</t>
-  </si>
-  <si>
-    <t>$362,066.76</t>
+    <t>$83,852.41</t>
+  </si>
+  <si>
+    <t>$15,567.40</t>
+  </si>
+  <si>
+    <t>$99,419.81</t>
   </si>
   <si>
     <t>INQUIRIES</t>
@@ -125,7 +125,7 @@
     <t>Y.T.D.</t>
   </si>
   <si>
-    <t>362 [362]</t>
+    <t>339 [339]</t>
   </si>
   <si>
     <t>0Intv(front)</t>
@@ -134,7 +134,7 @@
     <t>PREV</t>
   </si>
   <si>
-    <t>783 [783]</t>
+    <t>721 [721]</t>
   </si>
   <si>
     <t>1Ren(back)</t>
@@ -155,6 +155,12 @@
     <t>Renewal</t>
   </si>
   <si>
+    <t>T : 1</t>
+  </si>
+  <si>
+    <t>S : 1</t>
+  </si>
+  <si>
     <t>T : 0</t>
   </si>
   <si>
@@ -167,13 +173,31 @@
     <t>S : 6</t>
   </si>
   <si>
+    <t>T : 7</t>
+  </si>
+  <si>
+    <t>S : 7</t>
+  </si>
+  <si>
+    <t>Units: 5.00</t>
+  </si>
+  <si>
     <t>Units: 0.00</t>
   </si>
   <si>
-    <t>Units: 30.00</t>
-  </si>
-  <si>
-    <t>$8,970.00</t>
+    <t>Units: 80.00</t>
+  </si>
+  <si>
+    <t>Units: 85.00</t>
+  </si>
+  <si>
+    <t>$500.00</t>
+  </si>
+  <si>
+    <t>$14,823.00</t>
+  </si>
+  <si>
+    <t>$15,323.00</t>
   </si>
   <si>
     <t>Adjust</t>
@@ -194,16 +218,13 @@
     <t>T : 8</t>
   </si>
   <si>
-    <t>T : 17</t>
-  </si>
-  <si>
-    <t>S : 13</t>
-  </si>
-  <si>
-    <t>T : 33</t>
-  </si>
-  <si>
-    <t>S : 23</t>
+    <t>T : 5</t>
+  </si>
+  <si>
+    <t>T : 23</t>
+  </si>
+  <si>
+    <t>S : 16</t>
   </si>
   <si>
     <t>Units: 8.00</t>
@@ -212,13 +233,13 @@
     <t>Units: 24.00</t>
   </si>
   <si>
-    <t>Units: 47.00</t>
-  </si>
-  <si>
-    <t>Units: 188.00</t>
-  </si>
-  <si>
-    <t>Units: 267.00</t>
+    <t>Units: 42.00</t>
+  </si>
+  <si>
+    <t>Units: 87.00</t>
+  </si>
+  <si>
+    <t>Units: 161.00</t>
   </si>
   <si>
     <t>$880.00</t>
@@ -227,13 +248,13 @@
     <t>$4,184.40</t>
   </si>
   <si>
-    <t>$7,031.90</t>
-  </si>
-  <si>
-    <t>$26,072.50</t>
-  </si>
-  <si>
-    <t>$38,168.80</t>
+    <t>$6,932.90</t>
+  </si>
+  <si>
+    <t>$15,142.00</t>
+  </si>
+  <si>
+    <t>$27,139.30</t>
   </si>
   <si>
     <t>Prev</t>
@@ -242,16 +263,16 @@
     <t>$1,639.50</t>
   </si>
   <si>
-    <t>$30,504.60</t>
-  </si>
-  <si>
-    <t>$57,882.51</t>
-  </si>
-  <si>
-    <t>$164,358.75</t>
-  </si>
-  <si>
-    <t>$254,385.36</t>
+    <t>$29,143.80</t>
+  </si>
+  <si>
+    <t>$56,223.72</t>
+  </si>
+  <si>
+    <t>$55,216.35</t>
+  </si>
+  <si>
+    <t>$142,223.37</t>
   </si>
   <si>
     <t>MISCELLANEOUS / FESTIVAL SALES TRACKING</t>
@@ -278,10 +299,7 @@
     <t>$0.000</t>
   </si>
   <si>
-    <t>$122,390.50</t>
-  </si>
-  <si>
-    <t>$147,508.50</t>
+    <t>$15,317.40</t>
   </si>
 </sst>
 </file>
@@ -704,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" customHeight="1" ht="20">
+    <row r="2" spans="1:11" customHeight="1" ht="36">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -910,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="8">
         <v>2</v>
@@ -930,7 +948,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
@@ -942,7 +960,7 @@
         <v>88</v>
       </c>
       <c r="F15" s="8">
-        <v>319</v>
+        <v>135</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>36</v>
@@ -959,19 +977,19 @@
         <v>38</v>
       </c>
       <c r="B16" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="F16" s="8">
-        <v>1223</v>
+        <v>372</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>39</v>
@@ -1022,57 +1040,57 @@
         <v>47</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:11" customHeight="1" ht="20">
       <c r="A21" s="4"/>
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" customHeight="1" ht="20">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
@@ -1084,148 +1102,148 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" customHeight="1" ht="20">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" customHeight="1" ht="20">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:11" customHeight="1" ht="20">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" customHeight="1" ht="20">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" customHeight="1" ht="20">
       <c r="A27" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K27" s="4"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="20">
@@ -1233,16 +1251,16 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1252,10 +1270,10 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1266,7 +1284,7 @@
     </row>
     <row r="32" spans="1:11" customHeight="1" ht="20">
       <c r="A32" s="8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1292,31 +1310,31 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" customHeight="1" ht="20">
       <c r="A34" s="8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>

--- a/admin/STAFF_MEMBER_REPORT.xlsx
+++ b/admin/STAFF_MEMBER_REPORT.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>SUMMARY OF STAFF MEMBER REPORT</t>
   </si>
   <si>
-    <t>Franchisee: Amto.Robert (Time Exchange, Coach Coach, Nicholas Kavoklis, Caleb Castillo)</t>
-  </si>
-  <si>
-    <t>(06/01/2025 - 09/17/2025)</t>
+    <t>Franchisee: Amto.Robert (Time Exchange, Nicholas Kavoklis, Roumyadeb Karmakar)</t>
+  </si>
+  <si>
+    <t>(09/01/2025 - 09/15/2025)</t>
   </si>
   <si>
     <t>CASH RECEIPTS</t>
@@ -44,51 +44,33 @@
     <t>Week</t>
   </si>
   <si>
-    <t>$9,786.05</t>
-  </si>
-  <si>
-    <t>$180.00</t>
-  </si>
-  <si>
-    <t>$9,966.05</t>
+    <t>$5,000.00</t>
+  </si>
+  <si>
+    <t>$0.00</t>
   </si>
   <si>
     <t>Week Refunds</t>
   </si>
   <si>
-    <t>$-1,124.55</t>
-  </si>
-  <si>
-    <t>$0.00</t>
-  </si>
-  <si>
     <t>Transfer out</t>
   </si>
   <si>
     <t>NET Y.T.D.</t>
   </si>
   <si>
-    <t>$30,417.91</t>
-  </si>
-  <si>
-    <t>$20,255.00</t>
-  </si>
-  <si>
-    <t>$49,548.36</t>
+    <t>$7,175.50</t>
+  </si>
+  <si>
+    <t>$15,000.00</t>
+  </si>
+  <si>
+    <t>$22,175.50</t>
   </si>
   <si>
     <t>PRV. Y.T.D.</t>
   </si>
   <si>
-    <t>$83,852.41</t>
-  </si>
-  <si>
-    <t>$15,567.40</t>
-  </si>
-  <si>
-    <t>$99,419.81</t>
-  </si>
-  <si>
     <t>INQUIRIES</t>
   </si>
   <si>
@@ -98,9 +80,6 @@
     <t>ACTIVE STUDENTS</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
     <t>Booked</t>
   </si>
   <si>
@@ -125,19 +104,16 @@
     <t>Y.T.D.</t>
   </si>
   <si>
-    <t>339 [339]</t>
-  </si>
-  <si>
-    <t>0Intv(front)</t>
+    <t>165 [165]</t>
+  </si>
+  <si>
+    <t>Intv(front)</t>
   </si>
   <si>
     <t>PREV</t>
   </si>
   <si>
-    <t>721 [721]</t>
-  </si>
-  <si>
-    <t>1Ren(back)</t>
+    <t>Ren(back)</t>
   </si>
   <si>
     <t>UNIT SALES TRACKING</t>
@@ -155,126 +131,84 @@
     <t>Renewal</t>
   </si>
   <si>
+    <t>T : 0</t>
+  </si>
+  <si>
+    <t>S : 0</t>
+  </si>
+  <si>
+    <t>T : 2</t>
+  </si>
+  <si>
+    <t>S : 2</t>
+  </si>
+  <si>
+    <t>Units: 0.00</t>
+  </si>
+  <si>
+    <t>Units: 10.00</t>
+  </si>
+  <si>
+    <t>Adjust</t>
+  </si>
+  <si>
+    <t>0 / 0.00/ $0.00</t>
+  </si>
+  <si>
+    <t>Net YTD</t>
+  </si>
+  <si>
     <t>T : 1</t>
   </si>
   <si>
     <t>S : 1</t>
   </si>
   <si>
-    <t>T : 0</t>
-  </si>
-  <si>
-    <t>S : 0</t>
-  </si>
-  <si>
     <t>T : 6</t>
   </si>
   <si>
-    <t>S : 6</t>
-  </si>
-  <si>
-    <t>T : 7</t>
-  </si>
-  <si>
-    <t>S : 7</t>
-  </si>
-  <si>
-    <t>Units: 5.00</t>
-  </si>
-  <si>
-    <t>Units: 0.00</t>
-  </si>
-  <si>
-    <t>Units: 80.00</t>
-  </si>
-  <si>
-    <t>Units: 85.00</t>
-  </si>
-  <si>
-    <t>$500.00</t>
-  </si>
-  <si>
-    <t>$14,823.00</t>
-  </si>
-  <si>
-    <t>$15,323.00</t>
-  </si>
-  <si>
-    <t>Adjust</t>
-  </si>
-  <si>
-    <t>0 / 0.00/ $0.00</t>
-  </si>
-  <si>
-    <t>Net YTD</t>
-  </si>
-  <si>
-    <t>T : 2</t>
-  </si>
-  <si>
-    <t>S : 2</t>
-  </si>
-  <si>
-    <t>T : 8</t>
-  </si>
-  <si>
-    <t>T : 5</t>
-  </si>
-  <si>
-    <t>T : 23</t>
-  </si>
-  <si>
-    <t>S : 16</t>
-  </si>
-  <si>
-    <t>Units: 8.00</t>
-  </si>
-  <si>
-    <t>Units: 24.00</t>
-  </si>
-  <si>
-    <t>Units: 42.00</t>
-  </si>
-  <si>
-    <t>Units: 87.00</t>
-  </si>
-  <si>
-    <t>Units: 161.00</t>
-  </si>
-  <si>
-    <t>$880.00</t>
-  </si>
-  <si>
-    <t>$4,184.40</t>
-  </si>
-  <si>
-    <t>$6,932.90</t>
-  </si>
-  <si>
-    <t>$15,142.00</t>
-  </si>
-  <si>
-    <t>$27,139.30</t>
+    <t>S : 4</t>
+  </si>
+  <si>
+    <t>T : 3</t>
+  </si>
+  <si>
+    <t>T : 11</t>
+  </si>
+  <si>
+    <t>S : 8</t>
+  </si>
+  <si>
+    <t>Units: 3.00</t>
+  </si>
+  <si>
+    <t>Units: 15.00</t>
+  </si>
+  <si>
+    <t>Units: 2.00</t>
+  </si>
+  <si>
+    <t>Units: 35.00</t>
+  </si>
+  <si>
+    <t>$380.00</t>
+  </si>
+  <si>
+    <t>$2,634.60</t>
+  </si>
+  <si>
+    <t>$359.10</t>
+  </si>
+  <si>
+    <t>$5,220.00</t>
+  </si>
+  <si>
+    <t>$8,593.70</t>
   </si>
   <si>
     <t>Prev</t>
   </si>
   <si>
-    <t>$1,639.50</t>
-  </si>
-  <si>
-    <t>$29,143.80</t>
-  </si>
-  <si>
-    <t>$56,223.72</t>
-  </si>
-  <si>
-    <t>$55,216.35</t>
-  </si>
-  <si>
-    <t>$142,223.37</t>
-  </si>
-  <si>
     <t>MISCELLANEOUS / FESTIVAL SALES TRACKING</t>
   </si>
   <si>
@@ -297,9 +231,6 @@
   </si>
   <si>
     <t>$0.000</t>
-  </si>
-  <si>
-    <t>$15,317.40</t>
   </si>
 </sst>
 </file>
@@ -781,133 +712,131 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" customHeight="1" ht="20">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="20">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" customHeight="1" ht="20">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="20">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="20">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" customHeight="1" ht="35">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -918,26 +847,20 @@
       <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="8">
         <v>0</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
-      <c r="E14" s="8">
-        <v>2</v>
-      </c>
-      <c r="F14" s="8">
-        <v>2</v>
-      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -945,11 +868,9 @@
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="20">
       <c r="A15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="8">
-        <v>80</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="8">
         <v>0</v>
       </c>
@@ -957,16 +878,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="8">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F15" s="8">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -974,11 +895,9 @@
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="20">
       <c r="A16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="8">
-        <v>177</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="8">
         <v>0</v>
       </c>
@@ -986,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="F16" s="8">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1003,25 +922,25 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:11" customHeight="1" ht="35">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="3" t="s">
@@ -1034,216 +953,216 @@
         <v>8</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:11" customHeight="1" ht="20">
       <c r="A21" s="4"/>
       <c r="B21" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="8" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" customHeight="1" ht="20">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="6" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="6" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" customHeight="1" ht="20">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="8" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="8" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="8" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" customHeight="1" ht="20">
       <c r="A24" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="I24" s="8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:11" customHeight="1" ht="20">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="8" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="8" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="8" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" customHeight="1" ht="20">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="6" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" customHeight="1" ht="20">
       <c r="A27" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="8" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="8" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="8" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="8" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="K27" s="4"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="20">
@@ -1251,16 +1170,16 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1270,10 +1189,10 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1284,14 +1203,14 @@
     </row>
     <row r="32" spans="1:11" customHeight="1" ht="20">
       <c r="A32" s="8" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1303,38 +1222,38 @@
     </row>
     <row r="33" spans="1:11" customHeight="1" ht="20">
       <c r="A33" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="6" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" customHeight="1" ht="20">
       <c r="A34" s="8" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="6" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -1374,8 +1293,11 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:K13"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="H14:K14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="H15:K15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="A18:K18"/>
     <mergeCell ref="B19:C19"/>

--- a/admin/STAFF_MEMBER_REPORT.xlsx
+++ b/admin/STAFF_MEMBER_REPORT.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>SUMMARY OF STAFF MEMBER REPORT</t>
   </si>
   <si>
-    <t>Franchisee: Amto.Robert (Time Exchange, Nicholas Kavoklis, Roumyadeb Karmakar)</t>
-  </si>
-  <si>
-    <t>(09/01/2025 - 09/15/2025)</t>
+    <t>Franchisee: Amto.Robert (Edwin Cabrera, Time Exchange, Coach Coach, Nicholas Kavoklis, Caleb Castillo)</t>
+  </si>
+  <si>
+    <t>(04/01/2025 - 10/06/2025)</t>
   </si>
   <si>
     <t>CASH RECEIPTS</t>
@@ -44,9 +44,6 @@
     <t>Week</t>
   </si>
   <si>
-    <t>$5,000.00</t>
-  </si>
-  <si>
     <t>$0.00</t>
   </si>
   <si>
@@ -59,178 +56,229 @@
     <t>NET Y.T.D.</t>
   </si>
   <si>
-    <t>$7,175.50</t>
+    <t>PRV. Y.T.D.</t>
+  </si>
+  <si>
+    <t>INQUIRIES</t>
+  </si>
+  <si>
+    <t>LESSONS TAUGHT | Exchange</t>
+  </si>
+  <si>
+    <t>ACTIVE STUDENTS</t>
+  </si>
+  <si>
+    <t>Booked</t>
+  </si>
+  <si>
+    <t>Showed</t>
+  </si>
+  <si>
+    <t>Pvt Intv(front)</t>
+  </si>
+  <si>
+    <t>Pvt Ren(back)</t>
+  </si>
+  <si>
+    <t># in class [incl.core]</t>
+  </si>
+  <si>
+    <t>0 [0]</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Y.T.D.</t>
+  </si>
+  <si>
+    <t>362 [362]</t>
+  </si>
+  <si>
+    <t>5Intv(front)</t>
+  </si>
+  <si>
+    <t>PREV</t>
+  </si>
+  <si>
+    <t>820 [820]</t>
+  </si>
+  <si>
+    <t>8Ren(back)</t>
+  </si>
+  <si>
+    <t>UNIT SALES TRACKING</t>
+  </si>
+  <si>
+    <t>Pre Original</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>Renewal</t>
+  </si>
+  <si>
+    <t>T : 1</t>
+  </si>
+  <si>
+    <t>S : 1</t>
+  </si>
+  <si>
+    <t>T : 0</t>
+  </si>
+  <si>
+    <t>S : 0</t>
+  </si>
+  <si>
+    <t>T : 11</t>
+  </si>
+  <si>
+    <t>S : 6</t>
+  </si>
+  <si>
+    <t>T : 12</t>
+  </si>
+  <si>
+    <t>S : 7</t>
+  </si>
+  <si>
+    <t>Units: 5.00</t>
+  </si>
+  <si>
+    <t>Units: 0.00</t>
+  </si>
+  <si>
+    <t>Units: 95.00</t>
+  </si>
+  <si>
+    <t>Units: 100.00</t>
+  </si>
+  <si>
+    <t>$500.00</t>
+  </si>
+  <si>
+    <t>$7,480.50</t>
+  </si>
+  <si>
+    <t>$7,980.50</t>
+  </si>
+  <si>
+    <t>Adjust</t>
+  </si>
+  <si>
+    <t>0 / 0.00/ $0.00</t>
+  </si>
+  <si>
+    <t>Net YTD</t>
+  </si>
+  <si>
+    <t>T : 2</t>
+  </si>
+  <si>
+    <t>S : 2</t>
+  </si>
+  <si>
+    <t>T : 8</t>
+  </si>
+  <si>
+    <t>T : 6</t>
+  </si>
+  <si>
+    <t>T : 18</t>
+  </si>
+  <si>
+    <t>S : 9</t>
+  </si>
+  <si>
+    <t>T : 34</t>
+  </si>
+  <si>
+    <t>S : 19</t>
+  </si>
+  <si>
+    <t>Units: 8.00</t>
+  </si>
+  <si>
+    <t>Units: 24.00</t>
+  </si>
+  <si>
+    <t>Units: 47.00</t>
+  </si>
+  <si>
+    <t>Units: 168.00</t>
+  </si>
+  <si>
+    <t>Units: 247.00</t>
+  </si>
+  <si>
+    <t>$880.00</t>
+  </si>
+  <si>
+    <t>$4,184.40</t>
+  </si>
+  <si>
+    <t>$7,031.90</t>
+  </si>
+  <si>
+    <t>$17,627.50</t>
+  </si>
+  <si>
+    <t>$29,723.80</t>
+  </si>
+  <si>
+    <t>Prev</t>
+  </si>
+  <si>
+    <t>$1,639.50</t>
+  </si>
+  <si>
+    <t>$30,504.60</t>
+  </si>
+  <si>
+    <t>$74,665.71</t>
+  </si>
+  <si>
+    <t>$164,358.75</t>
+  </si>
+  <si>
+    <t>$271,168.56</t>
+  </si>
+  <si>
+    <t>MISCELLANEOUS / FESTIVAL SALES TRACKING</t>
+  </si>
+  <si>
+    <t>NON-UNIT SALES</t>
+  </si>
+  <si>
+    <t>SUNDRY</t>
+  </si>
+  <si>
+    <t>MISCELLANEOUS</t>
+  </si>
+  <si>
+    <t>Private/coach</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Prev.</t>
   </si>
   <si>
     <t>$15,000.00</t>
   </si>
   <si>
-    <t>$22,175.50</t>
-  </si>
-  <si>
-    <t>PRV. Y.T.D.</t>
-  </si>
-  <si>
-    <t>INQUIRIES</t>
-  </si>
-  <si>
-    <t>LESSONS TAUGHT | Exchange</t>
-  </si>
-  <si>
-    <t>ACTIVE STUDENTS</t>
-  </si>
-  <si>
-    <t>Booked</t>
-  </si>
-  <si>
-    <t>Showed</t>
-  </si>
-  <si>
-    <t>Pvt Intv(front)</t>
-  </si>
-  <si>
-    <t>Pvt Ren(back)</t>
-  </si>
-  <si>
-    <t># in class [incl.core]</t>
-  </si>
-  <si>
-    <t>0 [0]</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Y.T.D.</t>
-  </si>
-  <si>
-    <t>165 [165]</t>
-  </si>
-  <si>
-    <t>Intv(front)</t>
-  </si>
-  <si>
-    <t>PREV</t>
-  </si>
-  <si>
-    <t>Ren(back)</t>
-  </si>
-  <si>
-    <t>UNIT SALES TRACKING</t>
-  </si>
-  <si>
-    <t>Pre Original</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>Renewal</t>
-  </si>
-  <si>
-    <t>T : 0</t>
-  </si>
-  <si>
-    <t>S : 0</t>
-  </si>
-  <si>
-    <t>T : 2</t>
-  </si>
-  <si>
-    <t>S : 2</t>
-  </si>
-  <si>
-    <t>Units: 0.00</t>
-  </si>
-  <si>
-    <t>Units: 10.00</t>
-  </si>
-  <si>
-    <t>Adjust</t>
-  </si>
-  <si>
-    <t>0 / 0.00/ $0.00</t>
-  </si>
-  <si>
-    <t>Net YTD</t>
-  </si>
-  <si>
-    <t>T : 1</t>
-  </si>
-  <si>
-    <t>S : 1</t>
-  </si>
-  <si>
-    <t>T : 6</t>
-  </si>
-  <si>
-    <t>S : 4</t>
-  </si>
-  <si>
-    <t>T : 3</t>
-  </si>
-  <si>
-    <t>T : 11</t>
-  </si>
-  <si>
-    <t>S : 8</t>
-  </si>
-  <si>
-    <t>Units: 3.00</t>
-  </si>
-  <si>
-    <t>Units: 15.00</t>
-  </si>
-  <si>
-    <t>Units: 2.00</t>
-  </si>
-  <si>
-    <t>Units: 35.00</t>
-  </si>
-  <si>
-    <t>$380.00</t>
-  </si>
-  <si>
-    <t>$2,634.60</t>
-  </si>
-  <si>
-    <t>$359.10</t>
-  </si>
-  <si>
-    <t>$5,220.00</t>
-  </si>
-  <si>
-    <t>$8,593.70</t>
-  </si>
-  <si>
-    <t>Prev</t>
-  </si>
-  <si>
-    <t>MISCELLANEOUS / FESTIVAL SALES TRACKING</t>
-  </si>
-  <si>
-    <t>NON-UNIT SALES</t>
-  </si>
-  <si>
-    <t>SUNDRY</t>
-  </si>
-  <si>
-    <t>MISCELLANEOUS</t>
-  </si>
-  <si>
-    <t>Private/coach</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Prev.</t>
-  </si>
-  <si>
     <t>$0.000</t>
+  </si>
+  <si>
+    <t>$107,210.50</t>
+  </si>
+  <si>
+    <t>$168,703.50</t>
   </si>
 </sst>
 </file>
@@ -707,7 +755,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -719,102 +767,102 @@
     </row>
     <row r="7" spans="1:11" customHeight="1" ht="20">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="20">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" customHeight="1" ht="20">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="20">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="20">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -824,19 +872,19 @@
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -854,13 +902,17 @@
       <c r="D14" s="8">
         <v>0</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="8">
+        <v>14</v>
+      </c>
+      <c r="F14" s="8">
+        <v>143</v>
+      </c>
       <c r="G14" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -868,26 +920,26 @@
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="20">
       <c r="A15" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D15" s="8">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E15" s="8">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="F15" s="8">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -895,26 +947,26 @@
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="20">
       <c r="A16" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="8">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D16" s="8">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E16" s="8">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="F16" s="8">
-        <v>4</v>
+        <v>1313</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -922,25 +974,25 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:11" customHeight="1" ht="35">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="3" t="s">
@@ -953,216 +1005,216 @@
         <v>8</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="F20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="I20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="J20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="K20" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:11" customHeight="1" ht="20">
       <c r="A21" s="4"/>
       <c r="B21" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" customHeight="1" ht="20">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="6" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" customHeight="1" ht="20">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" customHeight="1" ht="20">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:11" customHeight="1" ht="20">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" customHeight="1" ht="20">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" customHeight="1" ht="20">
       <c r="A27" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="8" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="8" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="8" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="8" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="K27" s="4"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="20">
@@ -1170,16 +1222,16 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1189,10 +1241,10 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1203,57 +1255,57 @@
     </row>
     <row r="32" spans="1:11" customHeight="1" ht="20">
       <c r="A32" s="8" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="6" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" customHeight="1" ht="20">
       <c r="A33" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="6" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" customHeight="1" ht="20">
       <c r="A34" s="8" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="6" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
